--- a/Review task/LDA_topics.xlsx
+++ b/Review task/LDA_topics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.050*"drive" + 0.023*"storage" + 0.019*"easy" + 0.018*"use" + 0.018*"ssd" + 0.016*"fast" + 0.016*"need" + 0.012*"great" + 0.012*"transfer" + 0.012*"space"</t>
+          <t>0.028*"drive" + 0.020*"storage" + 0.017*"fast" + 0.014*"work" + 0.014*"time" + 0.014*"issue" + 0.013*"get" + 0.013*"game" + 0.012*"ssd" + 0.012*"use"</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.055*"drive" + 0.024*"great" + 0.024*"buy" + 0.023*"ssd" + 0.021*"hard" + 0.014*"good" + 0.012*"work" + 0.012*"game" + 0.011*"upgrade" + 0.010*"performance"</t>
+          <t>0.048*"drive" + 0.032*"ssd" + 0.024*"speed" + 0.021*"fast" + 0.016*"hard" + 0.013*"read" + 0.012*"good" + 0.012*"pc" + 0.012*"great" + 0.011*"price"</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.038*"well" + 0.023*"come" + 0.022*"drive" + 0.017*"year" + 0.015*"get" + 0.015*"much" + 0.014*"storage" + 0.014*"last" + 0.014*"price" + 0.012*"work"</t>
+          <t>0.041*"ssd" + 0.029*"drive" + 0.027*"good" + 0.026*"fast" + 0.017*"storage" + 0.016*"use" + 0.016*"game" + 0.013*"speed" + 0.013*"upgrade" + 0.012*"work"</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.044*"drive" + 0.019*"disk" + 0.018*"issue" + 0.016*"less" + 0.016*"ssd" + 0.014*"time" + 0.014*"find" + 0.010*"show" + 0.010*"give" + 0.010*"storage"</t>
+          <t>0.059*"use" + 0.022*"device" + 0.020*"get" + 0.020*"file" + 0.018*"new" + 0.014*"work" + 0.013*"easy" + 0.012*"second" + 0.012*"backup" + 0.012*"reliable"</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.059*"drive" + 0.031*"good" + 0.026*"fast" + 0.020*"ssd" + 0.020*"work" + 0.016*"game" + 0.015*"storage" + 0.013*"use" + 0.012*"buy" + 0.011*"well"</t>
+          <t>0.018*"buy" + 0.016*"good" + 0.014*"install" + 0.014*"western" + 0.013*"easy" + 0.013*"super" + 0.013*"happy" + 0.012*"digital" + 0.012*"drive" + 0.012*"performance"</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.035*"store" + 0.030*"drive" + 0.016*"use" + 0.016*"storage" + 0.015*"movie" + 0.013*"new" + 0.013*"ssd" + 0.011*"device" + 0.011*"easy" + 0.010*"old"</t>
+          <t>0.022*"storage" + 0.019*"game" + 0.016*"drive" + 0.013*"load" + 0.013*"performance" + 0.012*"laptop" + 0.012*"work" + 0.011*"take" + 0.010*"time" + 0.010*"need"</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.030*"file" + 0.020*"storage" + 0.017*"speed" + 0.015*"use" + 0.015*"fast" + 0.014*"video" + 0.013*"product" + 0.013*"game" + 0.012*"drive" + 0.011*"run"</t>
+          <t>0.028*"drive" + 0.023*"easy" + 0.018*"use" + 0.017*"purchase" + 0.015*"speed" + 0.015*"install" + 0.013*"perfect" + 0.012*"get" + 0.012*"storage" + 0.011*"recommend"</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.039*"drive" + 0.027*"wd" + 0.023*"get" + 0.022*"speed" + 0.021*"storage" + 0.017*"ssd" + 0.015*"read" + 0.014*"fast" + 0.014*"write" + 0.012*"need"</t>
+          <t>0.061*"drive" + 0.017*"ssd" + 0.016*"use" + 0.016*"fast" + 0.016*"easy" + 0.015*"need" + 0.013*"pc" + 0.013*"storage" + 0.013*"datum" + 0.012*"hard"</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.023*"performance" + 0.022*"drive" + 0.018*"use" + 0.016*"speed" + 0.014*"much" + 0.014*"buy" + 0.013*"ssd" + 0.013*"recommend" + 0.011*"great" + 0.010*"need"</t>
+          <t>0.037*"fast" + 0.026*"drive" + 0.025*"use" + 0.023*"storage" + 0.014*"work" + 0.014*"speed" + 0.013*"laptop" + 0.013*"new" + 0.013*"recommend" + 0.012*"buy"</t>
         </is>
       </c>
     </row>
@@ -536,407 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.038*"drive" + 0.032*"ssd" + 0.025*"storage" + 0.019*"buy" + 0.017*"speed" + 0.016*"upgrade" + 0.016*"use" + 0.014*"hard" + 0.012*"also" + 0.012*"game"</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.028*"speed" + 0.026*"drive" + 0.023*"use" + 0.019*"fast" + 0.017*"ssd" + 0.015*"go" + 0.015*"storage" + 0.012*"feature" + 0.012*"power" + 0.012*"technology"</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.044*"use" + 0.026*"drive" + 0.022*"ssd" + 0.017*"storage" + 0.016*"great" + 0.014*"get" + 0.012*"speed" + 0.012*"new" + 0.012*"heat" + 0.011*"game"</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.031*"drive" + 0.028*"use" + 0.023*"good" + 0.018*"fast" + 0.014*"ssd" + 0.012*"quick" + 0.012*"purchase" + 0.012*"pro" + 0.011*"great" + 0.011*"get"</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.053*"work" + 0.026*"drive" + 0.021*"great" + 0.017*"make" + 0.015*"well" + 0.015*"safe" + 0.014*"use" + 0.014*"ssd" + 0.013*"new" + 0.012*"fast"</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.046*"drive" + 0.022*"ssd" + 0.017*"much" + 0.017*"make" + 0.016*"new" + 0.015*"fast" + 0.013*"transfer" + 0.013*"need" + 0.013*"upgrade" + 0.012*"pc"</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.044*"price" + 0.025*"drive" + 0.022*"great" + 0.022*"good" + 0.021*"ssd" + 0.020*"use" + 0.020*"easy" + 0.018*"work" + 0.016*"fast" + 0.016*"get"</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.027*"desktop" + 0.025*"fast" + 0.022*"easy" + 0.018*"load" + 0.018*"laptop" + 0.018*"old" + 0.017*"game" + 0.016*"drive" + 0.015*"purchase" + 0.015*"digital"</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.097*"drive" + 0.027*"ssd" + 0.020*"fast" + 0.018*"computer" + 0.016*"hard" + 0.015*"connect" + 0.013*"great" + 0.012*"get" + 0.012*"also" + 0.012*"speed"</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.027*"drive" + 0.018*"easy" + 0.016*"run" + 0.015*"work" + 0.014*"use" + 0.013*"fast" + 0.013*"install" + 0.012*"take" + 0.012*"seem" + 0.011*"good"</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.045*"datum" + 0.030*"drive" + 0.026*"file" + 0.020*"also" + 0.017*"make" + 0.015*"transfer" + 0.014*"fast" + 0.013*"use" + 0.013*"software" + 0.013*"write"</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.032*"drive" + 0.028*"storage" + 0.019*"easy" + 0.018*"ssd" + 0.017*"fast" + 0.016*"new" + 0.015*"go" + 0.014*"great" + 0.012*"laptop" + 0.011*"external"</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.052*"drive" + 0.017*"go" + 0.017*"run" + 0.016*"fast" + 0.015*"performance" + 0.015*"pc" + 0.014*"great" + 0.013*"need" + 0.012*"get" + 0.012*"storage"</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.026*"fast" + 0.026*"storage" + 0.019*"need" + 0.016*"ssd" + 0.016*"drive" + 0.016*"use" + 0.016*"buy" + 0.012*"laptop" + 0.012*"help" + 0.012*"game"</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.048*"good" + 0.024*"speed" + 0.023*"fast" + 0.022*"storage" + 0.021*"case" + 0.020*"buy" + 0.018*"ssd" + 0.012*"want" + 0.012*"work" + 0.012*"drive"</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.038*"drive" + 0.025*"easy" + 0.023*"install" + 0.019*"fast" + 0.017*"new" + 0.016*"use" + 0.015*"hard" + 0.014*"get" + 0.013*"storage" + 0.012*"great"</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.031*"drive" + 0.028*"use" + 0.018*"game" + 0.016*"laptop" + 0.015*"speed" + 0.014*"performance" + 0.013*"pc" + 0.012*"ssd" + 0.011*"new" + 0.011*"issue"</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.042*"drive" + 0.034*"ssd" + 0.033*"use" + 0.020*"external" + 0.019*"laptop" + 0.015*"hdd" + 0.015*"new" + 0.014*"fast" + 0.011*"speed" + 0.011*"easy"</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.040*"ssd" + 0.037*"drive" + 0.034*"game" + 0.025*"storage" + 0.019*"download" + 0.019*"hard" + 0.014*"space" + 0.013*"internal" + 0.011*"problem" + 0.011*"plenty"</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.025*"use" + 0.020*"ssd" + 0.019*"even" + 0.017*"drive" + 0.016*"new" + 0.014*"computer" + 0.012*"get" + 0.012*"great" + 0.012*"easy" + 0.012*"external"</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0.051*"drive" + 0.026*"run" + 0.021*"use" + 0.018*"ssd" + 0.018*"fast" + 0.017*"boot" + 0.016*"hot" + 0.016*"time" + 0.014*"window" + 0.014*"take"</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0.032*"use" + 0.025*"pc" + 0.022*"drive" + 0.018*"work" + 0.016*"get" + 0.015*"try" + 0.014*"ssd" + 0.014*"speed" + 0.013*"buy" + 0.012*"fast"</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>0.035*"game" + 0.024*"speed" + 0.024*"drive" + 0.023*"fast" + 0.022*"use" + 0.020*"storage" + 0.016*"well" + 0.014*"load" + 0.013*"come" + 0.013*"instal"</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0.044*"work" + 0.043*"drive" + 0.033*"use" + 0.028*"backup" + 0.026*"great" + 0.018*"storage" + 0.018*"easy" + 0.016*"file" + 0.015*"fast" + 0.012*"transfer"</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>0.033*"drive" + 0.022*"slow" + 0.019*"bit" + 0.019*"new" + 0.017*"go" + 0.016*"use" + 0.015*"old" + 0.015*"device" + 0.014*"speed" + 0.014*"hard"</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0.033*"fast" + 0.029*"drive" + 0.025*"work" + 0.024*"datum" + 0.021*"use" + 0.019*"ssd" + 0.018*"several" + 0.017*"buy" + 0.017*"good" + 0.015*"new"</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>0.027*"drive" + 0.024*"fast" + 0.021*"use" + 0.018*"performance" + 0.014*"upgrade" + 0.014*"game" + 0.014*"ssd" + 0.013*"storage" + 0.012*"give" + 0.011*"well"</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0.030*"new" + 0.027*"old" + 0.026*"drive" + 0.026*"use" + 0.024*"backup" + 0.020*"speed" + 0.018*"storage" + 0.014*"quality" + 0.014*"note" + 0.012*"want"</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>0.043*"ssd" + 0.021*"price" + 0.018*"good" + 0.017*"performance" + 0.017*"drive" + 0.017*"get" + 0.016*"great" + 0.015*"use" + 0.013*"storage" + 0.013*"fast"</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>0.033*"use" + 0.029*"drive" + 0.028*"fast" + 0.021*"work" + 0.018*"load" + 0.017*"system" + 0.014*"great" + 0.013*"buy" + 0.012*"year" + 0.010*"file"</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>0.040*"fast" + 0.038*"drive" + 0.027*"ssd" + 0.019*"work" + 0.015*"buy" + 0.015*"storage" + 0.014*"good" + 0.014*"speed" + 0.013*"use" + 0.012*"get"</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>0.053*"ssd" + 0.051*"good" + 0.050*"great" + 0.030*"work" + 0.029*"drive" + 0.017*"fast" + 0.017*"price" + 0.012*"storage" + 0.012*"make" + 0.011*"case"</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>0.036*"ssd" + 0.023*"great" + 0.020*"buy" + 0.018*"drive" + 0.018*"good" + 0.013*"purchase" + 0.013*"lose" + 0.013*"work" + 0.013*"heat" + 0.012*"make"</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0.030*"storage" + 0.027*"use" + 0.023*"speed" + 0.021*"need" + 0.016*"great" + 0.015*"write" + 0.013*"read" + 0.012*"buy" + 0.012*"file" + 0.012*"good"</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>0.061*"drive" + 0.042*"fast" + 0.019*"speed" + 0.016*"read" + 0.015*"software" + 0.013*"transfer" + 0.013*"buy" + 0.012*"need" + 0.012*"great" + 0.011*"old"</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>0.032*"drive" + 0.026*"speed" + 0.023*"good" + 0.021*"easy" + 0.020*"buy" + 0.017*"fast" + 0.015*"install" + 0.012*"get" + 0.012*"storage" + 0.011*"use"</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>0.036*"western" + 0.034*"drive" + 0.031*"digital" + 0.021*"new" + 0.018*"storage" + 0.015*"ssd" + 0.014*"buy" + 0.013*"hard" + 0.012*"speed" + 0.012*"get"</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>0.056*"storage" + 0.027*"recommend" + 0.022*"ssd" + 0.021*"game" + 0.020*"highly" + 0.014*"upgrade" + 0.014*"buy" + 0.013*"good" + 0.011*"fast" + 0.010*"new"</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0.057*"drive" + 0.022*"give" + 0.018*"great" + 0.015*"ssd" + 0.015*"hard" + 0.014*"work" + 0.014*"use" + 0.012*"game" + 0.010*"time" + 0.010*"still"</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>0.021*"storage" + 0.020*"perfect" + 0.019*"ssd" + 0.019*"buy" + 0.015*"speed" + 0.015*"far" + 0.015*"get" + 0.014*"laptop" + 0.013*"fast" + 0.012*"drive"</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>0.021*"good" + 0.021*"file" + 0.017*"drive" + 0.016*"get" + 0.015*"need" + 0.015*"product" + 0.014*"quality" + 0.014*"work" + 0.014*"use" + 0.013*"go"</t>
+          <t>0.061*"great" + 0.041*"work" + 0.024*"product" + 0.021*"drive" + 0.016*"get" + 0.015*"good" + 0.015*"storage" + 0.014*"price" + 0.013*"ssd" + 0.012*"buy"</t>
         </is>
       </c>
     </row>
